--- a/medicine/Enfance/Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série/Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série.xlsx
+++ b/medicine/Enfance/Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série/Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article donne la liste de tous les romans parus dans les séries des collections Bibliothèque verte et Bibliothèque rose aux éditions Hachette.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alice
-Depuis 2011, certains des tomes de cette série ont été réédités dans la Bibliothèque rose alors qu'ils étaient précédemment dans la Bibliothèque verte ; par conséquent, certains des tomes ne figurent pas dans cette section.
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2011, certains des tomes de cette série ont été réédités dans la Bibliothèque rose alors qu'ils étaient précédemment dans la Bibliothèque verte ; par conséquent, certains des tomes ne figurent pas dans cette section.
 Tome 8 : Alice et le Violon tzigane
 Tome 17 : Alice et la Malle mystérieuse
 Tome 18 : Alice en Écosse
@@ -526,14 +543,84 @@
 Tome 24 : Alice chez les stars
 Tome 25 : Alice et le Fantôme de la crique
 Tome 26 : Alice et la Dame à la lanterne
-Astérix
-Série basée sur les adaptations cinématographiques de la série de bande dessinée Astérix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Astérix</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série basée sur les adaptations cinématographiques de la série de bande dessinée Astérix.
 Astérix aux Jeux Olympiques - Le roman du film
 Astérix et les Vikings - Le roman du film
 Astérix et Obélix : Au service de Sa Majesté - Le roman du film
 Astérix : Le Domaine des dieux - Le roman du film
-Aventures sur mesure
-Chaque tome est une novélisation soit d'un film, d'une série télévisée ou d'un jeu télévisé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aventures sur mesure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque tome est une novélisation soit d'un film, d'une série télévisée ou d'un jeu télévisé.
 Prince of Persia : Les Sables du Temps (tiré du film) - Le choix de Dastan
 Star Wars: The Clone Wars - La voie du Jedi
 Star Wars: The Clone Wars - La bataille de Teth
@@ -544,7 +631,43 @@
 Star Wars: The Clone Wars - L'armée secrète de Dooku
 Koh-Lanta - Défis en Océanie
 Prince of Persia : Les Sables du Temps - Le destin de Tamina
-Baskup Tony Parker
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Baskup Tony Parker</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Premier Match
 Les Règles du jeu
 Esprit d'équipe
@@ -552,13 +675,85 @@
 Les Vampires de Sunset
 Terrain d’entente
 Défi Maya
-Batman : L'Alliance des héros
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Batman : L'Alliance des héros</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L’Île des dinosaures
 L’Épée magique
 Le Royaume d'Aquaman
 L'Armée des robots
 Le champion de Red Tornado
-Beast Quest
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Beast Quest</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Dragon de feu
 Le Serpent de mer
 Le Géant des montagnes
@@ -599,8 +794,43 @@
 La Créature des marais
 L'Arbre maléfique
 La Reine des guêpes
-Bibliothèque Marvel
-Novélisation des films de Marvel Studios et de la deuxième adaptation cinématographique du personnage de Spider-Man.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bibliothèque Marvel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Novélisation des films de Marvel Studios et de la deuxième adaptation cinématographique du personnage de Spider-Man.
 Avengers - Le roman du film
 Thor - Le roman du film
 Captain America: First Avenger - Le roman du film
@@ -614,8 +844,43 @@
 Avengers : L'Ère d'Ultron - Le roman du film
 Ant-Man - Le roman du film
 Captain America : Civil War - Le roman du film
-Cars Toon
-Série dérivée de la série télévisée d'animation homonyme basée sur la licence des films Cars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cars Toon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série dérivée de la série télévisée d'animation homonyme basée sur la licence des films Cars.
 Martin, le roi des pompiers
 Martin, le roi des cascadeurs
 Martin, le roi de la corrida
@@ -623,8 +888,43 @@
 Martin, le roi de la course
 Martin, le roi des détectives
 Cars 2 - Le roman du film
-Les Conquérants de l'impossible
-Langelot
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Langelot</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Langelot agent secret (1965)
 Langelot et les Espions (1966)
 Langelot et le Satellite (1966)
@@ -665,21 +965,125 @@
 Langelot aux arrêts de rigueur (1984)
 Langelot et le commando perdu (1985)
 Langelot donne l'assaut (1985)
-Larry Bash
-Descendants : Génération méchants
-Série dérivée de la série télévisée homonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Descendants : Génération méchants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série dérivée de la série télévisée homonyme.
 La fête d'Auradon
 Un vœu dangereux
 Toutes en scène !
 Méchamment stylées
 Mystères en série
 Une méchante surprise
-Descendants : L'école des Secrets
-Série dérivée de la web-série homonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Descendants : L'école des Secrets</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Série dérivée de la web-série homonyme.
 Le trésor de CJ
 Attention, magie !
-Mystères en folie !
-Dragon Ball
+Mystères en folie !</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dragon Ball</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Boules de cristal
 Le Secret d'Oolong
 Le Maître des tortues
@@ -694,13 +1098,83 @@
 La Défaite de l'armée
 Le Défi de la voyante
 Le Retour du dragon
-Ébène, le fils de l'Étalon Noir
-Série dérivée de l'Étalon Noir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ébène, le fils de l'Étalon Noir</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série dérivée de l'Étalon Noir.
 La Promesse
 Un cheval nommé Ébène
 Le Retour
-L'Étalon noir
-Certains des tomes de cette série ont été réédités dans la Bibliothèque rose alors qu'ils l'étaient précédemment dans la Bibliothèque verte, par conséquent, certains des tomes ne figurent pas dans cette section.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L'Étalon noir</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains des tomes de cette série ont été réédités dans la Bibliothèque rose alors qu'ils l'étaient précédemment dans la Bibliothèque verte, par conséquent, certains des tomes ne figurent pas dans cette section.
 Une série Ébène, le fils de l'Étalon Noir également sorti à la Bibliothèque verte, centrée sur son fils.
 Flamme, cheval sauvage
 Flamme et l'Étalon Noir
@@ -713,7 +1187,43 @@
 Sur les traces de l'Étalon Noir
 Un rival pour l'Étalon Noir
 Une cavalière pour l'Étalon Noir
-Films
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Avatar - Le roman du film
 John Carter - Le roman du film
 Karaté Kid - Le roman du film
@@ -721,8 +1231,43 @@
 Transformers 3 : La Face cachée de la Lune - Le roman du film
 Tron : L'Héritage - Le roman du film
 Lone Ranger, naissance d'un héros - Le roman du film
-Foot 2 rue
-Série dérivée de la série télévisée d'animation Foot 2 rue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Foot 2 rue</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série dérivée de la série télévisée d'animation Foot 2 rue.
 Duel au vieux port
 Goal surprise
 Mise à l'épreuve
@@ -759,7 +1304,43 @@
 La Relève
 La Coupe d'Europe
 L'Histoire des bleus - Tag et Samira
-Gormiti
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gormiti</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 01 : Il faut sauver Lucas !
 Tome 02 : Toby se jette à l'eau
 Tome 03 : À la recherche de Nick
@@ -772,8 +1353,43 @@
 Tome 10 : Le Dernier Combat de Luminos
 Tome 11 : Le Maître de la lave
 Tome 12 : Le Gardien de la forêt
-Les Légendaires
-Série dérivée de la bande dessinée de Patrick Sobral Les Légendaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Les Légendaires</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série dérivée de la bande dessinée de Patrick Sobral Les Légendaires.
 La Pierre des dieux
 Les Épreuves du gardien
 La Guerre des elfes
@@ -785,17 +1401,125 @@
 Le Cycle d'Anathos : La Malédiction d'Anathos
 Le Cycle d'Anathos : La Marque du mal
 Le Cycle d'Anathos : Les Clones de l'enfer
-Les légendes d'Avantia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Les légendes d'Avantia</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 1 : Le Masque de la mort
 Tome 2 : Le Troisième Cavalier
 Tome 3 : Le Pouvoir des bêtes
 Tome 4 : La Forteresse maléfique
-Avengers rassemblement
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Avengers rassemblement</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 1 : Renaissance
 Tome 2 : Les Usurpateurs
 Tome 3 : Le Règne du serpent
 Tome 4 : Le Dévoreur de monde
-Super 4
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Super 4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 1 : Alerte aux dragons !
 Tome 2 : Plus fort que le mauvais sort
 Tome 3 : Mission impossible !
@@ -807,7 +1531,43 @@
 Tome 9 : L'épée du Pouvoir
 Tome 10 :Chasse au trésor
 Tome 11 :Invention maléfique !
-Naruto
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Naruto</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 01 : Les Techniques secrètes
 Tome 02 : Les Aspirants ninjas
 Tome 03 : L’Épreuve de Kakashi
@@ -828,14 +1588,86 @@
 Tome 18 : L'Espion
 Tome 19 : Les Pouvoirs de Sasuke
 Tome 20 : Le Tournoi
-One Piece
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>One Piece</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 1 : Le Seigneur des pirates
 Tome 2 : Le Capitaine Baggy
 Tome 3 : Une nouvelle recrue
 Tome 4 : Révélation
 Tome 5 : Le Combat de Pipo
 Tome 6 : La Promesse de Zorro
-Pirates des Caraïbes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pirates des Caraïbes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 1 : Les Caraïbes
 Tome 2 : Sao Feng
 Tome 3 : Le Seigneur de l'Inde
@@ -844,7 +1676,43 @@
 Tome 2 : Pirates des Caraïbes : Le Secret du coffre maudit - Le roman du film
 Tome 3 : Pirates des Caraïbes : Jusqu'au bout du monde - Le roman du film
 Tome 4 : Pirates des Caraïbes : La Fontaine de jouvence - Le roman du film
-Pokémon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Pokémon</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 01 : Le Problème de Pikachu
 Tome 02 : Le Mystérieux Pokémon
 Tome 03 : Le Combat de Sacha
@@ -876,8 +1744,43 @@
 tome 29 : L’Énigme du Z
 tome 30 :
 Aventure sur mesure - Un nouveau dresseur
-les six Compagnons
-Certains des tomes de cette série ont été réédités dans la Bibliothèque rose alors qu'ils étaient dans la Bibliothèque verte, ainsi certains des tomes ne figurent pas dans cette section.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>les six Compagnons</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains des tomes de cette série ont été réédités dans la Bibliothèque rose alors qu'ils étaient dans la Bibliothèque verte, ainsi certains des tomes ne figurent pas dans cette section.
 Tome 07 : Les Six Compagnons et l'Homme au gant
 Tome 08 : Les Six Compagnons au Gouffre Marzal
 Tome 09 : Les Six Compagnons et le château maudit
@@ -894,7 +1797,43 @@
 Tome 20 : Les Six Compagnons et le carré magique
 Tome 21 : Les Six Compagnons hors la loi
 Tome 22 : Les Six Compagnons et le chasseur de scoops
-Spider-Man
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Spider-Man</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 1 : L'Homme-araignée
 Tome 2 : Le Vautour
 Tome 3 : Le Savant fou
@@ -907,12 +1846,83 @@
 tome 4. Le Rino se déchaine
 tome 5. La Proie du chasseur
 tome 6. Les Cents Visages du caméléon
-Star Fighters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Star Fighters</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 1. L'Attaque extraterrestre
 tome 2. Le Prisonnier
 tome 3. Le Piège
-Star Wars
-Collection « Ma Première Bibliothèque Verte (6-8 ans) »[1]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Star Wars</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collection « Ma Première Bibliothèque Verte (6-8 ans) »
 Episode I - La menace fantôme
 Episode II - L'Attaque des clones
 Episode III - La revanche des Sith
@@ -952,14 +1962,50 @@
 05 : L'Obscurité
 06 : Le Froid
 07 : Le Sauvetage
-Collection « Biographies »[2]
+Collection « Biographies »
 1 : Luke Skywalker
 2 : Dark Vador
 3 : Obi-Wan Kenobi
 4 : Dark Maul
 Star Wars - Rogue One - Le roman du film
 Star Wars - Han Solo - Le roman du film
-Star Wars: The Clone Wars
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Star Wars: The Clone Wars</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 01 : L'Invasion droïde
 Tome 02 : Les Secrets de la République 
 Tome 03 : Le Retour de R2-D2
@@ -978,7 +2024,43 @@
 Tome 16 : L'Invasion de Kamino
 Tome 17 : La Guerre aquatique
 Tome 18 : L'Attaque des Gungans
-Titeuf
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Titeuf</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 01 : Même pô mal...
 Tome 02 : C'est pô croyab'
 Tome 03 : C'est pô une vie...
@@ -997,7 +2079,43 @@
 tome 16 : Rock and rold atitude
 tome 17 : La Pire de ma life
 tome 18. : C'est po juste !
-les volcans et la lave
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>les volcans et la lave</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tome 1 : L'Armée des ténèbres
 Tome 2 : Maîtres et élèves
 Tome 3 : Le Visiteur
@@ -1007,40 +2125,81 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bibliothèque rose</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agatha Mistery
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Agatha Mistery</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Secret de la déesse
 Le Trésor du roi
 Les Bijoux de la diva
 Meurtre à la Tour Eiffel
 Le Mystère des Bermudes
-Alice
-Certains des tomes de cette série ont été réédités dans la Bibliothèque rose à partir de 2011 alors qu'ils l'étaient précédemment dans la Bibliothèque verte. Par conséquent, certains des tomes ne figurent pas dans cette section.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains des tomes de cette série ont été réédités dans la Bibliothèque rose à partir de 2011 alors qu'ils l'étaient précédemment dans la Bibliothèque verte. Par conséquent, certains des tomes ne figurent pas dans cette section.
 Alice et le Cheval volé
 Alice au manoir hanté
 Alice et le Chandelier
@@ -1056,8 +2215,43 @@
 Alice à Venise
 Alice chez le grand couturier
 Alice et les Faux-monnayeurs
-La Reine des neiges
-Série tirée du film d'animation La Reine des neiges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>La Reine des neiges</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série tirée du film d'animation La Reine des neiges.
 Un nouvel ami
 Le Festival de l'hiver
 Une Nuit chez les trolls
@@ -1087,12 +2281,84 @@
 Reine d’un jour
 Cadeau de Sven
 La fête des sœurs
-Babar : les Aventures de Badou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Babar : les Aventures de Badou</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Au voleur !
 Même pas peur !
 Jake déménage
 La Chasse au trésor
-Les Ballerines magiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Les Ballerines magiques</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Daphné au royaume enchanté
 Le Sortilège des neiges
 Le Grand Bal masqué
@@ -1116,7 +2382,43 @@
 Lucie au bois féerique
 L’Anniversaire secret
 Le Sortilège d'argent
-Bella Sara
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bella Sara</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Destin d'Emma
 Le Trésor d'Éléonore
 La Victoire de Marie
@@ -1137,12 +2439,84 @@
 La Forêt magique d'Héloïse 
 L'Épreuve de Stella
 Le Cheval de Dorothée
-Belle, Intelligente et Courageuse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Belle, Intelligente et Courageuse</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agathe et les Miroirs menteurs
 Menthe aux grands pieds
 Le Cadeau d'Uma
 Min, la petite fille dragon
-Bibliothèque Disney
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bibliothèque Disney</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Roi lion - Le roman du film
 La Belle au bois dormant - Le roman du film
 Le Monde de Nemo - Le roman du film
@@ -1164,18 +2538,126 @@
 Le Voyage d'Arlo - Le roman du film
 Zootopie - Le roman du film
 Le Monde de Dory - Le roman du film, 2016
-Bibliothèque DreamWorks
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bibliothèque DreamWorks</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Croods - Le roman du film
 En route ! - Le roman du film
 Kung Fu Panda 3 - Le roman du film
 Alvin et les Chipmunks : À fond la caisse - Le roman du film
 L'Âge de glace : Les Lois de l'Univers - Le roman du film, 2016
-Bijoux de Princesses
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bijoux de Princesses</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Bague de Cendrillon
 La Couronne d'Aurore
 Le Diadème de Jasmine
 Les Diamants de Raiponce
-Monster High
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Monster High</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Fête des goules
 13 souhaits
 Pourquoi les goules tombent amoureuse ?
@@ -1187,7 +2669,43 @@
 Scaris ville des frayeurs
 La Bête de l'île au crâne
 La Grande Barrière des frayeurs
-Nouvelle Série Bibliothèque rose
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Nouvelle Série Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ladybug, tome 1 : Une super baby sitter
 Ladybug, tome 2 : Un chat de trop
 Ladybug, tome 3 : ?
@@ -1197,13 +2715,84 @@
 My little pony, tome 2 : Une drôle de casse coup
 Alvin!!! et les chipmunk, tome 1 : Le Papa poulpe
 Alvin!!! et les chipmunk, tome 2 : Les Sœurs ennemies
-Les Chefs-d’œuvre Disney
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Les Chefs-d’œuvre Disney</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cendrillon - Le roman du film
 Blanche-Neige et les Sept Nains - Le roman du film
 Le Livre de la Jungle - Le roman du film
 La Belle et la Bête - Le roman du film
-Cédric
-01 Moi, j'aime l'école (1421)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Cédric</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>01 Moi, j'aime l'école (1421)
 02 Mon papa est astronaute (1422)
 03 La fête de l'école (1423)
 04 Roulez jeunesse ! (1424)
@@ -1225,9 +2814,43 @@
 20 La grande course (1440)
 21 Je ne suis pas une fille (1700)
 22 La guerre des portables (1701)
-23 Des vacances de rêve (1702)
-Le Clan des Sept
-Les quinze premiers tomes ont été écrits par Enid Blyton et sont classés par leur ordre de parution originale au Royaume-Uni (l'ordre des tomes a été ensuite mélangé lors de la traduction en français). La série a été reprise sous le nom Les Sept en France par Évelyne Lallemand puis traduite en anglais.
+23 Des vacances de rêve (1702)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Le Clan des Sept</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quinze premiers tomes ont été écrits par Enid Blyton et sont classés par leur ordre de parution originale au Royaume-Uni (l'ordre des tomes a été ensuite mélangé lors de la traduction en français). La série a été reprise sous le nom Les Sept en France par Évelyne Lallemand puis traduite en anglais.
 Le Clan des sept et les Bonshommes de neige, 1969
 Le Clan des sept va au cirque, 1966
 Bien joué, Clan des sept !, 1958
@@ -1243,7 +2866,43 @@
 Surprise au Clan des sept, 1964
 La Médaille du Clan des sept, 1969
 Le Cheval du Clan des sept, 1966
-Le Club des Cinq
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Le Club des Cinq</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Club des Cinq et le Trésor de l'île
 Le Club des Cinq et le Passage secret
 Le Club des Cinq contre-attaque
@@ -1289,8 +2948,43 @@
 Les Cinq contre le loup-garou
 Les Cinq au bal des espions
 Les Cinq dans la cité secrète
-Cluedo
-Série de livres-jeux inspirés du célèbre jeu de société homonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Cluedo</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série de livres-jeux inspirés du célèbre jeu de société homonyme.
 01 - Monsieur Moutarde
 02 - Mademoiselle Rose
 03 - Monsieur Olive
@@ -1309,8 +3003,44 @@
 16 - Un rôle pour Mademoiselle Rose
 17 - Moutarde et le Clan des Siciliens
 18 - Dîner glaçant pour Mme Pervenche
-Aventure sur mesure XXL Cluedo - Meurtre à Noël[3]
-La Comtesse de Ségur
+Aventure sur mesure XXL Cluedo - Meurtre à Noël
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>La Comtesse de Ségur</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Après la pluie, le beau temps
 Coffret Comtesse de Ségur
 François le bossu
@@ -1327,7 +3057,43 @@
 Mémoires d'un âne
 Quel amour d’enfant !
 Un bon petit diable
-Fantômette
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Fantômette</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Exploits de Fantômette
 Fantômette contre le hibou
 Fantômette contre le géant
@@ -1359,8 +3125,43 @@
 Le Retour de Fantômette
 Fantômette a la main verte
 Fantômette et le Magicien
-L'Étalon noir
-Certains des tomes de cette série ont été réédites dans la Bibliothèque rose alors qu'ils l'étaient précédemment dans la verte, par conséquent, certains des tomes ne figurent pas dans cette section.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>L'Étalon noir</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains des tomes de cette série ont été réédites dans la Bibliothèque rose alors qu'ils l'étaient précédemment dans la verte, par conséquent, certains des tomes ne figurent pas dans cette section.
 L'Étalon Noir
 Le Retour de l'Étalon Noir
 Le Ranch de l'Étalon Noir
@@ -1380,7 +3181,43 @@
 Flamme et l'Étalon noir
 Une cavalière pour l'Étalon noir
 La Naissance d'un champion
-Le Fauteuil Magique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Le Fauteuil Magique</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Première édition, 1988/1991
 Les Aventures du fauteuil magique. - La bibliothèque rose ; 534.1988. Illustrations par Véronique Boiry.
 Les Caprices du fauteuil magique. - La bibliothèque rose ; 535. 1988. Illustrations par Véronique Boiry.
@@ -1399,7 +3236,43 @@
 Le concours des géants La bibliothèque rose ; 2013
 Le royaume de l’hiver La bibliothèque rose ; 2013
 La vallée des contes La bibliothèque rose ; 2014
-La Fée Clochette
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>La Fée Clochette</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bienvenue au pays imaginaire !
 À toute vitesse !
 Que le bal commence !
@@ -1418,7 +3291,43 @@
 Clochette et le Secret des fées - Le roman du film
 Clochette et la Fée Pirate - Le roman du film
 Clochette et la Créature Légendaire - Le roman du film
-Films
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Émilie Jolie - Le roman du film
 Alice au pays des merveilles - Le roman du film
 Le Monde fantastique d'Oz - Le roman du film
@@ -1432,14 +3341,86 @@
 Le Livre de la jungle - Le roman du film, 2016
 Alice de l'autre côté du miroir - Le roman du film, 2016
 Tini : La Nouvelle Vie de Violetta - Le roman du film
-Films d'animation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Films d'animation</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'Âge de glace 2 - Le roman du film
 L'Âge de glace 3 - Le roman du film
 L’Âge de glace 4 : La Dérive des continents - Le roman du film
 Un Monstre à Paris - Le roman du film
 Vice Versa - Le roman du film
 Angry Birds, le film - Le roman du film, 2016
-Franklin
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Franklin</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Franklin magicien
 Franklin ne veut pas dormir
 Franklin lit une histoire
@@ -1451,7 +3432,43 @@
 Franklin a de la chance
 Le Canard de Franklin
 Franklin et le Trésor du lac
-Garfield
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Garfield</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'Attaque des lasagnes
 Odie est amoureux
 C'est le monde à l'envers
@@ -1466,8 +3483,43 @@
 SOS, souris en détresse !
 Une faim de furet
 Ne pas déranger !
-Ghost Secret
-Série historique et policière de Sophie Marvaud
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Ghost Secret</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série historique et policière de Sophie Marvaud
 La Momie du pharaon, 2008
 Le Trésor de Barbe-Jaune, 2008
 Le Tournoi maudit, 2008
@@ -1479,8 +3531,43 @@
 La Fiancée du chevalier, 2009
 Le Triomphe de César, 2009
 Avec Christophe Colomb, 2010
-Hannah Montana
-D'après la série télévisée américaine Hannah Montana (2006-2011)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Hannah Montana</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la série télévisée américaine Hannah Montana (2006-2011)
 Hannah Montana - Le roman du film
 Voyage en Italie
 Bienvenue à Sidney !
@@ -1492,7 +3579,43 @@
 Promenade en mer
 Star et strass au Texas
 À la conquête de l'Ouest !
-Jojo Lapin
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Jojo Lapin</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jojo Lapin a des problèmes
 Jojo Lapin à la fête
 Jojo Lapin chez maître Renard
@@ -1516,7 +3639,43 @@
 Les Aventures de Jojo Lapin
 Les Bons Trucs de Jojo Lapin
 Les Oreilles de Jojo Lapin
-Littlest Pet Shop
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Littlest Pet Shop</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Charlie est jaloux
 Basile est complexé
 Gustave regarde trop la télé
@@ -1530,7 +3689,43 @@
 Léo cherche de nouveaux amis
 Félix déménage
 Chloé se dispute avec son frère
-Ma Princesse préférée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Ma Princesse préférée</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cendrillon
 Blanche-Neige
 La Petite Sirène
@@ -1545,15 +3740,86 @@
 Le Grand Amour de Jasmine
 Le Rêve d'Ariel
 Le Cadeau de Blanche-Neige
-Malory School
-Les titres présents entre parenthèses sont les titres originaux d'Enid Blyton avant un renommage dans les années 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Malory School</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les titres présents entre parenthèses sont les titres originaux d'Enid Blyton avant un renommage dans les années 2010.
 La Rentrée (Les Filles de Malory School, 1971), 2012
 La Tempête (Sauvetage à Malory School, 1971), 2012
 Un pur-sang en danger (Un cheval à Malory School, 1972), 2013
 La Fête secrète (Réveillon à Malory School, 1974), 2013
 La Pièce de théâtre (Du théâtre à Malory School, 1974), 2014
 Les Adieux (Adieu à Malory School, 1975), 2014
-Mariages de Princesses
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Mariages de Princesses</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Mariage de Raiponce
 Les Noces royales de Tiana
 Le Mariage d'Ariel
@@ -1562,8 +3828,43 @@
 Le Mariage de Cendrillon
 Le Mariage de Blanche Neige
 Le Mariage de Jasmine
-Les Minijusticiers
-Dérivé de la série télévisée d'animation homonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Les Minijusticiers</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dérivé de la série télévisée d'animation homonyme
 Superlatchatche
 Superdoidanlenez
 Superfarceur
@@ -1571,7 +3872,43 @@
 Superprout
 Superlatrouille
 Superfrilleux
-Mini-Loup
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Mini-Loup</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mini-Loup et sa petite sœur
 Le Nouveau Copain de Mini-Loup
 Mini-Loup fait des cauchemars
@@ -1596,7 +3933,43 @@
 Mini-Loup et la sortie scolaire
 Rendez-vous avec Louna, 2016
 Une semaine avec Mini-Loup
-My Little Pony
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>My Little Pony</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Légende des licornes
 Le Concours de pouvoirs
 Un mystérieux poney
@@ -1608,7 +3981,43 @@
 Le Royaume de Cristal
 Les Jeux d’Équestria
 La marque du destin
-Oui-Oui
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Vacances de Oui-Oui
 Oui-Oui à la ferme
 Oui-Oui à la fête
@@ -1637,12 +4046,84 @@
 Oui-Oui va à l'école
 Oui-Oui veut faire fortune
 Une surprise pour Oui-Oui
-Phinéas &amp; Ferb
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Phinéas &amp; Ferb</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dingues de vitesse !
 Dingues de scène !
 Dingues de surprises
 Phinéas et Ferb et la deuxième dimension - Le roman du film
-Poppixie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Poppixie</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Secret d'Amore
 Le Pouvoir magique de Pam
 Les Caprices de Chérie
@@ -1652,7 +4133,43 @@
 Le Rendez-vous de Chatta
 Le Cousin de Lockette
 Amore contre les dragons
-Princesse Academy
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Princesse Academy</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Princesse Charlotte ouvre le bal (1551)
 Princesse Katie fait un vœu (1552)
 Princesse Daisy a du courage (1553)
@@ -1704,17 +4221,125 @@
 Princesse Lucie et la parade des dragons (1599)
 Princesse Salomé et la soirée dansante (1600)
 Princesse Lisa au Royaume des neiges (1601)
-Princesses à cheval
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Princesses à cheval</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Un champion pour Cendrillon
 L'Invité de Belle
 La Surprise de Blanche-Neige
 Le Nouvel Ami d'Aurore
 Le Défi de Jasmine
 Un cadeau pour Ariel
-Les Quatre Filles du docteur March
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Les Quatre Filles du docteur March</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Quatre Filles du docteur March
 Le Docteur March marie ses filles
-Le Ranch
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Le Ranch</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L’Étalon sauvage
 La Rivale
 L’Indomptable
@@ -1734,7 +4359,43 @@
 Au loup !
 Les Yeux de Miro
 L'Inondation !
-Le Royaume enchanté
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Le Royaume enchanté</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Palais du roi Merry
 La Vallée des licornes
 L’Île aux nuages
@@ -1747,39 +4408,250 @@
 Le Lac des nénuphars
 La Forêt des contes de fée
 Le Labyrinthe de minuit
-Les Schtroumpfs
-Novélisation des albums homonymes de Peyo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Les Schtroumpfs</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Novélisation des albums homonymes de Peyo.
 Le Bébé Schtroumpf
 Les Schtroumpfs olympiques
 Les Schtroumpfs noirs
 La Soupe aux Schtroumpfs
 L'Œuf et les Schtroumpfs
 Les P'tits Schtroumpfs
-Les Sept
-Reprise de la série Le Clan des Sept d'Enid Blyton.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Les Sept</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reprise de la série Le Clan des Sept d'Enid Blyton.
 Les Sept et la boule de cristal
 Les Sept et la déesse d'or
 Les Sept et le magicien
 Les Sept ne croient pas au Père-Noël
-Shake it up !
-Série dérivée de la série télévisée homonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Shake it up !</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série dérivée de la série télévisée homonyme.
 Duo de choc
 Danser à tout prix
 Soif d'aventure
-Les Six Compagnons
-Certains des tomes de cette série ont été réédites dans la Bibliothèque rose alors qu'ils étaient dans la Bibliothèque verte, par conséquent certains des tomes ne figurent pas dans cette section.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Les Six Compagnons</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains des tomes de cette série ont été réédites dans la Bibliothèque rose alors qu'ils étaient dans la Bibliothèque verte, par conséquent certains des tomes ne figurent pas dans cette section.
 Les Compagnons de la Croix-Rousse
 Les Six Compagnons et l'homme des neiges
 Les Six Compagnons et le mystère du parc
 Les Six Compagnons à Scotland Yard
 Les Six Compagnons au village englouti
 Les Six Compagnons et la bouteille à la mer
-Sophie et la forêt des Ombres
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sophie et la forêt des Ombres</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Roi gobelin
 Les Créatures du Marais
 Les Aragnomes
-Les Sorciers de Waverly Place
-Série dérivée de la série télévisée homonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Les Sorciers de Waverly Place</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série dérivée de la série télévisée homonyme.
 Haute Voltige
 Tout feu tout flamme
 Le Bal de promo
@@ -1789,8 +4661,43 @@
 Un frère trop parfait
 Une soirée désenchantée
 Les Sorciers de Waverly Place - Le roman du film
-Totally Spies
-Série dérivée de la série télévisée homonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Totally Spies</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série dérivée de la série télévisée homonyme.
 On connaît la musique
 Créatures féroces
 Espionnes contre espions
@@ -1822,8 +4729,43 @@
 Clover est virée !
 Enquête à Versailles
 Totally Spies! Le film - Le roman du film
-W.I.T.C.H.
-Winx Club
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte_et_de_la_Bibliothèque_rose_par_série</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte_et_de_la_Biblioth%C3%A8que_rose_par_s%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Winx Club</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Pouvoirs de Bloom
 Bienvenue à Magix
 L'Université des fées
